--- a/Docs/RunTime.xlsx
+++ b/Docs/RunTime.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danie\Documents\Universidad\Sexto Semestre\EDA\LabGraph-S13-G01\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/n_aparicioc_uniandes_edu_co/Documents/2021_02/Estructura de Datos y Algoritmos/Laboratorio/Laboratorio 9/LabGraph-S13-G01/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2B6376-A583-4C20-A96A-F95020742C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{7E2B6376-A583-4C20-A96A-F95020742C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6494BC4-9428-49B2-9821-48A760806E1F}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="612" windowWidth="20280" windowHeight="11628" xr2:uid="{046B5C98-3811-46A6-A961-5F71EEB0A3F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{046B5C98-3811-46A6-A961-5F71EEB0A3F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -111,15 +111,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -127,20 +145,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +194,2468 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Relación Número de Arcos/Vértices y el tiempo de ejecución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> en el Requerimiento 4</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.109877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42113159999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.468459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.82084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.208489999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.962416600000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.396079999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$3:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6829</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0234-4ABF-AC38-63D7BF950AA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arcos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3.0499999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.50075000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.109877</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42113159999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.468459</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.82084</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.208489999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.962416600000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38.396079999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0234-4ABF-AC38-63D7BF950AA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1174462992"/>
+        <c:axId val="1174463824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1174462992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tiempo de ejecución (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174463824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1174463824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Número de Arcos/Vértices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174462992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Relación Número de Arcos/Vértices y el tiempo de ejecución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CO" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> en el Requerimiento 6</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CO" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vértices</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.8964000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1343399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4627E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9673999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.00307E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0162999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8020600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3998200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6668000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$H$3:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>984</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6829</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9767</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE94-4EDC-B099-1D83F98EBCE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Arcos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$K$3:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.8964000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1343399999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4627E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9673999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.00307E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0162999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8020600000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.3998200000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.6668000000000005E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$3:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3560</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5773</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22758</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE94-4EDC-B099-1D83F98EBCE2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1174462992"/>
+        <c:axId val="1174463824"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1174462992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Tiempo de ejecución (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174463824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1174463824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Número de Arcos/Vértices</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1174462992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161204</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>74144</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>92221</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499FA371-6B9A-4145-8B79-7C08AF32DF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>378599</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>183296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219020</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114313</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333166FF-DE1C-4E0C-A6B2-AE6BD2DC1266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -458,33 +2958,34 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G1" sqref="G1:L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.21875" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="1"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,341 +3001,348 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>74</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>73</v>
       </c>
       <c r="D3" s="4">
         <v>3.0499999999999999E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J3">
+      <c r="H3" s="3">
+        <v>74</v>
+      </c>
+      <c r="I3" s="3">
+        <v>73</v>
+      </c>
+      <c r="J3" s="3">
         <v>59</v>
       </c>
       <c r="K3" s="4">
         <v>1.8964000000000002E-2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>146</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>146</v>
       </c>
       <c r="D4" s="4">
         <v>0.50075000000000003</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>150</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>146</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>146</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>59</v>
       </c>
       <c r="K4" s="4">
         <v>2.1343399999999998E-2</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>295</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>382</v>
       </c>
       <c r="D5" s="4">
         <v>0.109877</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>300</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>295</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>382</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>65</v>
       </c>
       <c r="K5" s="4">
         <v>2.4627E-2</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>984</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>1633</v>
       </c>
       <c r="D6" s="4">
         <v>0.42113159999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>1000</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>984</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>1633</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>63</v>
       </c>
       <c r="K6" s="4">
         <v>2.9673999999999999E-2</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1954</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>3560</v>
       </c>
       <c r="D7" s="4">
         <v>1.468459</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>2000</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>1954</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>3560</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>80</v>
       </c>
       <c r="K7" s="4">
         <v>3.00307E-2</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>2922</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>5773</v>
       </c>
       <c r="D8" s="4">
         <v>2.82084</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>3000</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>2922</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>5773</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>81</v>
       </c>
       <c r="K8" s="4">
         <v>4.0162999999999997E-2</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>6829</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>15334</v>
       </c>
       <c r="D9" s="4">
         <v>12.208489999999999</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>7000</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>6829</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>15334</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>95</v>
       </c>
       <c r="K9" s="4">
         <v>3.8020600000000002E-2</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>7000</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>9767</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>22758</v>
       </c>
       <c r="D10" s="4">
         <v>23.962416600000001</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>10000</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>9767</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>22758</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>112</v>
       </c>
       <c r="K10" s="4">
         <v>4.3998200000000001E-2</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>13535</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>32270</v>
       </c>
       <c r="D11" s="4">
         <v>38.396079999999998</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>14000</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>13535</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>32270</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>136</v>
       </c>
       <c r="K11" s="4">
         <v>6.6668000000000005E-2</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>14000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>